--- a/Code/Results/Cases/Case_3_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.024602250732244</v>
+        <v>0.7837220181217504</v>
       </c>
       <c r="C2">
-        <v>0.3818097256790622</v>
+        <v>0.4100876787769749</v>
       </c>
       <c r="D2">
-        <v>0.05367137419848689</v>
+        <v>0.02096903008951045</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4227079820020663</v>
+        <v>0.5383616254118238</v>
       </c>
       <c r="G2">
-        <v>0.3160253742629493</v>
+        <v>0.3800234734114838</v>
       </c>
       <c r="H2">
-        <v>0.2448741267057386</v>
+        <v>0.5335069827745826</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1930907946827602</v>
+        <v>0.2850609495427392</v>
       </c>
       <c r="M2">
-        <v>0.3653198906418353</v>
+        <v>0.2086486547752315</v>
       </c>
       <c r="N2">
-        <v>0.753133142139589</v>
+        <v>1.220696161227117</v>
       </c>
       <c r="O2">
-        <v>1.133079425143393</v>
+        <v>1.768812778141466</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.760893124689858</v>
+        <v>0.7042054461034581</v>
       </c>
       <c r="C3">
-        <v>0.3646674409627337</v>
+        <v>0.4045696761881459</v>
       </c>
       <c r="D3">
-        <v>0.0474796131599291</v>
+        <v>0.01891952754240123</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3886513415665362</v>
+        <v>0.5341870260095263</v>
       </c>
       <c r="G3">
-        <v>0.2906211556685605</v>
+        <v>0.3772373196669037</v>
       </c>
       <c r="H3">
-        <v>0.2382617069960986</v>
+        <v>0.5358212346289974</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1783454419071475</v>
+        <v>0.2831093610163222</v>
       </c>
       <c r="M3">
-        <v>0.3188540086115452</v>
+        <v>0.195719874688919</v>
       </c>
       <c r="N3">
-        <v>0.7700127902184946</v>
+        <v>1.229440667639736</v>
       </c>
       <c r="O3">
-        <v>1.065034268962421</v>
+        <v>1.767486867966284</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.599090783465556</v>
+        <v>0.6554113477591272</v>
       </c>
       <c r="C4">
-        <v>0.3541679422071695</v>
+        <v>0.4011981938140821</v>
       </c>
       <c r="D4">
-        <v>0.04366777871677385</v>
+        <v>0.01765259897646132</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3685215238006379</v>
+        <v>0.5319974169819233</v>
       </c>
       <c r="G4">
-        <v>0.2757295236623634</v>
+        <v>0.3758316283522234</v>
       </c>
       <c r="H4">
-        <v>0.2346587177277613</v>
+        <v>0.5375094016707465</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.169551298839508</v>
+        <v>0.282060902933857</v>
       </c>
       <c r="M4">
-        <v>0.290445590048158</v>
+        <v>0.1878451596558719</v>
       </c>
       <c r="N4">
-        <v>0.7813279787353622</v>
+        <v>1.235274187941556</v>
       </c>
       <c r="O4">
-        <v>1.02569966851587</v>
+        <v>1.767869265150949</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.533167109058382</v>
+        <v>0.6355361125208958</v>
       </c>
       <c r="C5">
-        <v>0.3498956428453823</v>
+        <v>0.3998286419261774</v>
       </c>
       <c r="D5">
-        <v>0.04211164536808809</v>
+        <v>0.01713419994661081</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3605032110189796</v>
+        <v>0.5311990783837643</v>
       </c>
       <c r="G5">
-        <v>0.2698277209332787</v>
+        <v>0.375335407922698</v>
       </c>
       <c r="H5">
-        <v>0.2333004629446549</v>
+        <v>0.5382645747412838</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1660293577253427</v>
+        <v>0.2816713804305451</v>
       </c>
       <c r="M5">
-        <v>0.2788953441564743</v>
+        <v>0.184652361704515</v>
       </c>
       <c r="N5">
-        <v>0.7861715618956495</v>
+        <v>1.237768291165871</v>
       </c>
       <c r="O5">
-        <v>1.010251660798986</v>
+        <v>1.76832585561435</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.522220782420987</v>
+        <v>0.6322364138470959</v>
       </c>
       <c r="C6">
-        <v>0.349186608359318</v>
+        <v>0.3996014972417328</v>
       </c>
       <c r="D6">
-        <v>0.04185307571606245</v>
+        <v>0.01704799325784023</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3591826035013739</v>
+        <v>0.5310721888197278</v>
       </c>
       <c r="G6">
-        <v>0.268857483321483</v>
+        <v>0.3752576353463013</v>
       </c>
       <c r="H6">
-        <v>0.233081428792282</v>
+        <v>0.5383940324356402</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1654481711471334</v>
+        <v>0.2816089811815843</v>
       </c>
       <c r="M6">
-        <v>0.2769789109608567</v>
+        <v>0.1841231856297725</v>
       </c>
       <c r="N6">
-        <v>0.7869896940479464</v>
+        <v>1.238189499239652</v>
       </c>
       <c r="O6">
-        <v>1.007720672913109</v>
+        <v>1.76841983402403</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.598201686674656</v>
+        <v>0.6551432661263448</v>
       </c>
       <c r="C7">
-        <v>0.3541102990723743</v>
+        <v>0.401179705684342</v>
       </c>
       <c r="D7">
-        <v>0.0436468037324147</v>
+        <v>0.0176456161934837</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3684126530207621</v>
+        <v>0.5319862699336753</v>
       </c>
       <c r="G7">
-        <v>0.2756492693276513</v>
+        <v>0.3758246260768914</v>
       </c>
       <c r="H7">
-        <v>0.2346399608399423</v>
+        <v>0.5375193139290388</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1695035552576485</v>
+        <v>0.2820554968416786</v>
       </c>
       <c r="M7">
-        <v>0.2902897178535611</v>
+        <v>0.1878020345343359</v>
       </c>
       <c r="N7">
-        <v>0.7813923678719021</v>
+        <v>1.235307350806821</v>
       </c>
       <c r="O7">
-        <v>1.025489021704118</v>
+        <v>1.767874205272079</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.933640562304191</v>
+        <v>0.7562993955312152</v>
       </c>
       <c r="C8">
-        <v>0.3758935530817524</v>
+        <v>0.4081817346651491</v>
       </c>
       <c r="D8">
-        <v>0.05153838947705225</v>
+        <v>0.02026414766629614</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4107959482997643</v>
+        <v>0.5368446758400012</v>
       </c>
       <c r="G8">
-        <v>0.3071125304778377</v>
+        <v>0.3789994455040642</v>
       </c>
       <c r="H8">
-        <v>0.2424962568034772</v>
+        <v>0.5342495012395148</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1879505494342979</v>
+        <v>0.2843569790059348</v>
       </c>
       <c r="M8">
-        <v>0.3492705504678355</v>
+        <v>0.2041777357302408</v>
       </c>
       <c r="N8">
-        <v>0.7587518009635659</v>
+        <v>1.223614966348975</v>
       </c>
       <c r="O8">
-        <v>1.10908911123397</v>
+        <v>1.768107195345408</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.593209038163877</v>
+        <v>0.9548492758156044</v>
       </c>
       <c r="C9">
-        <v>0.4188288701918736</v>
+        <v>0.4220370671693843</v>
       </c>
       <c r="D9">
-        <v>0.06694643196453853</v>
+        <v>0.02533040209442561</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5006624392761694</v>
+        <v>0.5493379430896255</v>
       </c>
       <c r="G9">
-        <v>0.3749438702474635</v>
+        <v>0.3876504258175828</v>
       </c>
       <c r="H9">
-        <v>0.2617638521322192</v>
+        <v>0.5299561795321779</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2263532082489661</v>
+        <v>0.2900570165234342</v>
       </c>
       <c r="M9">
-        <v>0.4661050971532319</v>
+        <v>0.236787287275547</v>
       </c>
       <c r="N9">
-        <v>0.7222112971892756</v>
+        <v>1.204365228007397</v>
       </c>
       <c r="O9">
-        <v>1.29403695316725</v>
+        <v>1.778065811520491</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.080181809012913</v>
+        <v>1.100782146520032</v>
       </c>
       <c r="C10">
-        <v>0.4505302929230339</v>
+        <v>0.4322836473204887</v>
       </c>
       <c r="D10">
-        <v>0.07824512000079409</v>
+        <v>0.02900965444706571</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5716212189092147</v>
+        <v>0.5603289341288971</v>
       </c>
       <c r="G10">
-        <v>0.4292894249099817</v>
+        <v>0.395493037149933</v>
       </c>
       <c r="H10">
-        <v>0.2786188740743825</v>
+        <v>0.5280921861893972</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2561750740935622</v>
+        <v>0.2949665998233399</v>
       </c>
       <c r="M10">
-        <v>0.5529709709745561</v>
+        <v>0.2610403824234879</v>
       </c>
       <c r="N10">
-        <v>0.7006103541684325</v>
+        <v>1.192458209546999</v>
       </c>
       <c r="O10">
-        <v>1.445084687851931</v>
+        <v>1.791190072170309</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.302550428351367</v>
+        <v>1.167172992667645</v>
       </c>
       <c r="C11">
-        <v>0.4649924133520358</v>
+        <v>0.4369578581387827</v>
       </c>
       <c r="D11">
-        <v>0.0833851199463993</v>
+        <v>0.03067391433651068</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6051659274459027</v>
+        <v>0.5657234977607501</v>
       </c>
       <c r="G11">
-        <v>0.4551737506065052</v>
+        <v>0.3993855223134233</v>
       </c>
       <c r="H11">
-        <v>0.2869541428451612</v>
+        <v>0.5275241394683121</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2701495252372439</v>
+        <v>0.2973565009629908</v>
       </c>
       <c r="M11">
-        <v>0.5927860219780356</v>
+        <v>0.2721362146557027</v>
       </c>
       <c r="N11">
-        <v>0.6920296689890435</v>
+        <v>1.187525475731732</v>
       </c>
       <c r="O11">
-        <v>1.517649630724122</v>
+        <v>1.798425206377743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.386903836334</v>
+        <v>1.192313031413221</v>
       </c>
       <c r="C12">
-        <v>0.4704752504550811</v>
+        <v>0.4387295570904257</v>
       </c>
       <c r="D12">
-        <v>0.08533191379325444</v>
+        <v>0.03130274193423332</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6180673455168773</v>
+        <v>0.5678230723281672</v>
       </c>
       <c r="G12">
-        <v>0.4651587002182538</v>
+        <v>0.4009063347502888</v>
       </c>
       <c r="H12">
-        <v>0.2902137480248399</v>
+        <v>0.5273492547718917</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2755051565636109</v>
+        <v>0.298283954745898</v>
       </c>
       <c r="M12">
-        <v>0.6079124525201891</v>
+        <v>0.2763467858568731</v>
       </c>
       <c r="N12">
-        <v>0.6889690903292021</v>
+        <v>1.185727048169255</v>
       </c>
       <c r="O12">
-        <v>1.545731345379892</v>
+        <v>1.80134704282537</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.368729835746933</v>
+        <v>1.186898730587814</v>
       </c>
       <c r="C13">
-        <v>0.4692941333102851</v>
+        <v>0.4383479184835437</v>
       </c>
       <c r="D13">
-        <v>0.08491261364088842</v>
+        <v>0.03116737506656619</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6152796746788027</v>
+        <v>0.5673683663272584</v>
       </c>
       <c r="G13">
-        <v>0.4629998528669717</v>
+        <v>0.4005767169813765</v>
       </c>
       <c r="H13">
-        <v>0.2895070235702235</v>
+        <v>0.527385130840571</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2743488030385919</v>
+        <v>0.2980832133913793</v>
       </c>
       <c r="M13">
-        <v>0.6046524060212519</v>
+        <v>0.2754395754792753</v>
       </c>
       <c r="N13">
-        <v>0.6896196870864912</v>
+        <v>1.186111282332206</v>
       </c>
       <c r="O13">
-        <v>1.539655816108592</v>
+        <v>1.800709673836963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.309487126684587</v>
+        <v>1.169241302016815</v>
       </c>
       <c r="C14">
-        <v>0.465443359676442</v>
+        <v>0.4371035843656728</v>
       </c>
       <c r="D14">
-        <v>0.08354527391964695</v>
+        <v>0.03072567643567226</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.606223251102108</v>
+        <v>0.5658950931980229</v>
       </c>
       <c r="G14">
-        <v>0.4559914532340485</v>
+        <v>0.3995097016977951</v>
       </c>
       <c r="H14">
-        <v>0.2872202010215119</v>
+        <v>0.5275089456342528</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2705888270898527</v>
+        <v>0.2974323535291603</v>
       </c>
       <c r="M14">
-        <v>0.5940294561877337</v>
+        <v>0.2724824454603052</v>
       </c>
       <c r="N14">
-        <v>0.6917740335523987</v>
+        <v>1.187376125755044</v>
       </c>
       <c r="O14">
-        <v>1.519947554686382</v>
+        <v>1.798661938171762</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.273219239343177</v>
+        <v>1.158425477434378</v>
       </c>
       <c r="C15">
-        <v>0.4630854904984858</v>
+        <v>0.43634160649097</v>
       </c>
       <c r="D15">
-        <v>0.08270780048974302</v>
+        <v>0.03045494108906865</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6007023330013155</v>
+        <v>0.5650000643752975</v>
       </c>
       <c r="G15">
-        <v>0.4517229453767726</v>
+        <v>0.3988622233996466</v>
       </c>
       <c r="H15">
-        <v>0.2858331196679558</v>
+        <v>0.5275900231223005</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2682941997964861</v>
+        <v>0.2970366050848838</v>
       </c>
       <c r="M15">
-        <v>0.5875292116823871</v>
+        <v>0.2706722596095901</v>
       </c>
       <c r="N15">
-        <v>0.6931185078293396</v>
+        <v>1.18815992636307</v>
       </c>
       <c r="O15">
-        <v>1.507955703548987</v>
+        <v>1.797431353832224</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.065668635181851</v>
+        <v>1.096443326948588</v>
       </c>
       <c r="C16">
-        <v>0.4495860214042722</v>
+        <v>0.4319784216827145</v>
       </c>
       <c r="D16">
-        <v>0.07790924283058587</v>
+        <v>0.02890069820275443</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5694558670637591</v>
+        <v>0.5599843302876906</v>
       </c>
       <c r="G16">
-        <v>0.4276225543351444</v>
+        <v>0.395245199405025</v>
       </c>
       <c r="H16">
-        <v>0.2780881870017851</v>
+        <v>0.5281349393239196</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2552704556306509</v>
+        <v>0.2948135587527929</v>
       </c>
       <c r="M16">
-        <v>0.5503755150607432</v>
+        <v>0.2603164908107587</v>
       </c>
       <c r="N16">
-        <v>0.7011969970578846</v>
+        <v>1.192790304051002</v>
       </c>
       <c r="O16">
-        <v>1.440424035144417</v>
+        <v>1.790742705220566</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.938576780659105</v>
+        <v>1.058419570408773</v>
       </c>
       <c r="C17">
-        <v>0.4413153351375172</v>
+        <v>0.4293049399186941</v>
       </c>
       <c r="D17">
-        <v>0.07496577758342227</v>
+        <v>0.02794477691837471</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5506228657233407</v>
+        <v>0.557008442878967</v>
       </c>
       <c r="G17">
-        <v>0.4131464839278891</v>
+        <v>0.3931095444851138</v>
       </c>
       <c r="H17">
-        <v>0.273512939325542</v>
+        <v>0.5285408966574039</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2473889184799987</v>
+        <v>0.293489837687261</v>
       </c>
       <c r="M17">
-        <v>0.5276639330872186</v>
+        <v>0.2539795244253753</v>
       </c>
       <c r="N17">
-        <v>0.7064785973811851</v>
+        <v>1.195754751153792</v>
       </c>
       <c r="O17">
-        <v>1.4000161337527</v>
+        <v>1.786963511304748</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.865554511206597</v>
+        <v>1.036549894537529</v>
       </c>
       <c r="C18">
-        <v>0.4365620822406839</v>
+        <v>0.42776845799456</v>
       </c>
       <c r="D18">
-        <v>0.07327276712589281</v>
+        <v>0.02739406870709615</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5399086397542803</v>
+        <v>0.5553339422025942</v>
       </c>
       <c r="G18">
-        <v>0.4049286127990399</v>
+        <v>0.3919117419944484</v>
       </c>
       <c r="H18">
-        <v>0.2709437808706952</v>
+        <v>0.5288007390153098</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2428937779453832</v>
+        <v>0.2927432028604926</v>
       </c>
       <c r="M18">
-        <v>0.5146286044470756</v>
+        <v>0.2503406108137014</v>
       </c>
       <c r="N18">
-        <v>0.7096330753916078</v>
+        <v>1.197505367634385</v>
       </c>
       <c r="O18">
-        <v>1.377134089097382</v>
+        <v>1.784908862213882</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.84084298871187</v>
+        <v>1.029145343616278</v>
       </c>
       <c r="C19">
-        <v>0.4349533569453286</v>
+        <v>0.4272484494064912</v>
       </c>
       <c r="D19">
-        <v>0.07269953097764414</v>
+        <v>0.02720745691886606</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5363007610078299</v>
+        <v>0.5547733653785798</v>
       </c>
       <c r="G19">
-        <v>0.402164326891878</v>
+        <v>0.3915114339319103</v>
       </c>
       <c r="H19">
-        <v>0.2700844142324286</v>
+        <v>0.528893242990776</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2413781962213903</v>
+        <v>0.2924929374894276</v>
       </c>
       <c r="M19">
-        <v>0.5102196513856825</v>
+        <v>0.249109564890496</v>
       </c>
       <c r="N19">
-        <v>0.7107208772200551</v>
+        <v>1.198105921248093</v>
       </c>
       <c r="O19">
-        <v>1.369446927403573</v>
+        <v>1.784233634035189</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.952097710626447</v>
+        <v>1.06246721463333</v>
       </c>
       <c r="C20">
-        <v>0.4421953646273806</v>
+        <v>0.4295894102829863</v>
       </c>
       <c r="D20">
-        <v>0.07527911266423359</v>
+        <v>0.02804662846609318</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5526153378758636</v>
+        <v>0.5573213860864641</v>
       </c>
       <c r="G20">
-        <v>0.4146761566852462</v>
+        <v>0.3933337240081727</v>
       </c>
       <c r="H20">
-        <v>0.2739934731901315</v>
+        <v>0.5284949552362406</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2482239413287175</v>
+        <v>0.2936292254882318</v>
       </c>
       <c r="M20">
-        <v>0.5300787011932186</v>
+        <v>0.2546534920640156</v>
       </c>
       <c r="N20">
-        <v>0.7059042223126113</v>
+        <v>1.195434467578615</v>
       </c>
       <c r="O20">
-        <v>1.404280071116062</v>
+        <v>1.787353491203078</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.326883932716498</v>
+        <v>1.174427748586368</v>
       </c>
       <c r="C21">
-        <v>0.4665742491112326</v>
+        <v>0.4374690314731993</v>
       </c>
       <c r="D21">
-        <v>0.08394688121519778</v>
+        <v>0.03085545205586726</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6088778083504423</v>
+        <v>0.566326288409293</v>
       </c>
       <c r="G21">
-        <v>0.4580448878136281</v>
+        <v>0.3998218386701922</v>
       </c>
       <c r="H21">
-        <v>0.2878890352920109</v>
+        <v>0.5274714868157844</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2716914492051075</v>
+        <v>0.2976229180020056</v>
       </c>
       <c r="M21">
-        <v>0.597148282816967</v>
+        <v>0.2733507887263329</v>
       </c>
       <c r="N21">
-        <v>0.6911360478921651</v>
+        <v>1.187002725234414</v>
       </c>
       <c r="O21">
-        <v>1.525719579173455</v>
+        <v>1.799258465742099</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.57270012963852</v>
+        <v>1.247595462338438</v>
       </c>
       <c r="C22">
-        <v>0.482544501345842</v>
+        <v>0.4426285046534986</v>
       </c>
       <c r="D22">
-        <v>0.08961421294407046</v>
+        <v>0.03268305473956445</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6468157357290778</v>
+        <v>0.5725424182778625</v>
       </c>
       <c r="G22">
-        <v>0.4874643827664755</v>
+        <v>0.4043351030223619</v>
       </c>
       <c r="H22">
-        <v>0.2975759092066852</v>
+        <v>0.5270370250040628</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2874033538346197</v>
+        <v>0.300363857305328</v>
       </c>
       <c r="M22">
-        <v>0.6412729309311658</v>
+        <v>0.2856218552187642</v>
       </c>
       <c r="N22">
-        <v>0.6825892046101316</v>
+        <v>1.181897109328908</v>
       </c>
       <c r="O22">
-        <v>1.608626783090358</v>
+        <v>1.808100244633607</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.441414498904692</v>
+        <v>1.208545422669999</v>
       </c>
       <c r="C23">
-        <v>0.4740173045251481</v>
+        <v>0.4398739734966455</v>
       </c>
       <c r="D23">
-        <v>0.08658910153434363</v>
+        <v>0.03170838308503932</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6264549107666681</v>
+        <v>0.5691944713713468</v>
       </c>
       <c r="G23">
-        <v>0.4716586792764872</v>
+        <v>0.4019012850455539</v>
       </c>
       <c r="H23">
-        <v>0.2923479575106853</v>
+        <v>0.5272474633717508</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2789815774807494</v>
+        <v>0.2988890138125129</v>
       </c>
       <c r="M23">
-        <v>0.6176939736711731</v>
+        <v>0.279067939843479</v>
       </c>
       <c r="N23">
-        <v>0.6870463765306809</v>
+        <v>1.184585039934362</v>
       </c>
       <c r="O23">
-        <v>1.56403677484866</v>
+        <v>1.803284068290594</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.945984761436762</v>
+        <v>1.060637303571355</v>
       </c>
       <c r="C24">
-        <v>0.4417974981118391</v>
+        <v>0.42946079954136</v>
       </c>
       <c r="D24">
-        <v>0.07513745630931368</v>
+        <v>0.02800058491856561</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5517141901405012</v>
+        <v>0.5571797911533238</v>
       </c>
       <c r="G24">
-        <v>0.4139842669773088</v>
+        <v>0.3932322789628699</v>
       </c>
       <c r="H24">
-        <v>0.2737760337049622</v>
+        <v>0.5285156429537636</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2478463155607358</v>
+        <v>0.2935661634366085</v>
       </c>
       <c r="M24">
-        <v>0.5289869169065824</v>
+        <v>0.2543487779054487</v>
       </c>
       <c r="N24">
-        <v>0.706163530409043</v>
+        <v>1.195579123503776</v>
       </c>
       <c r="O24">
-        <v>1.402351261653706</v>
+        <v>1.787176813555675</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.414458710391898</v>
+        <v>0.9011221946013279</v>
       </c>
       <c r="C25">
-        <v>0.4071880695424994</v>
+        <v>0.4182764252749109</v>
       </c>
       <c r="D25">
-        <v>0.06278341581241165</v>
+        <v>0.02396730743405584</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4755466765461236</v>
+        <v>0.5456402320506655</v>
       </c>
       <c r="G25">
-        <v>0.3558602539881122</v>
+        <v>0.3850496132110948</v>
       </c>
       <c r="H25">
-        <v>0.2561036569653936</v>
+        <v>0.5308909470642931</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2157008710924799</v>
+        <v>0.2883881276448861</v>
       </c>
       <c r="M25">
-        <v>0.4343415822080061</v>
+        <v>0.2279131790217477</v>
       </c>
       <c r="N25">
-        <v>0.7312099035380442</v>
+        <v>1.209179674717191</v>
       </c>
       <c r="O25">
-        <v>1.241519266110743</v>
+        <v>1.774352937817866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7837220181217504</v>
+        <v>2.024602250732244</v>
       </c>
       <c r="C2">
-        <v>0.4100876787769749</v>
+        <v>0.3818097256790622</v>
       </c>
       <c r="D2">
-        <v>0.02096903008951045</v>
+        <v>0.05367137419879242</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5383616254118238</v>
+        <v>0.4227079820020734</v>
       </c>
       <c r="G2">
-        <v>0.3800234734114838</v>
+        <v>0.3160253742629067</v>
       </c>
       <c r="H2">
-        <v>0.5335069827745826</v>
+        <v>0.2448741267057528</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2850609495427392</v>
+        <v>0.1930907946828242</v>
       </c>
       <c r="M2">
-        <v>0.2086486547752315</v>
+        <v>0.3653198906418211</v>
       </c>
       <c r="N2">
-        <v>1.220696161227117</v>
+        <v>0.7531331421395961</v>
       </c>
       <c r="O2">
-        <v>1.768812778141466</v>
+        <v>1.133079425143393</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7042054461034581</v>
+        <v>1.760893124689716</v>
       </c>
       <c r="C3">
-        <v>0.4045696761881459</v>
+        <v>0.3646674409625064</v>
       </c>
       <c r="D3">
-        <v>0.01891952754240123</v>
+        <v>0.04747961316001437</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5341870260095263</v>
+        <v>0.3886513415665362</v>
       </c>
       <c r="G3">
-        <v>0.3772373196669037</v>
+        <v>0.2906211556685534</v>
       </c>
       <c r="H3">
-        <v>0.5358212346289974</v>
+        <v>0.2382617069960986</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2831093610163222</v>
+        <v>0.1783454419071262</v>
       </c>
       <c r="M3">
-        <v>0.195719874688919</v>
+        <v>0.3188540086115523</v>
       </c>
       <c r="N3">
-        <v>1.229440667639736</v>
+        <v>0.7700127902184946</v>
       </c>
       <c r="O3">
-        <v>1.767486867966284</v>
+        <v>1.065034268962421</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6554113477591272</v>
+        <v>1.599090783465556</v>
       </c>
       <c r="C4">
-        <v>0.4011981938140821</v>
+        <v>0.3541679422073685</v>
       </c>
       <c r="D4">
-        <v>0.01765259897646132</v>
+        <v>0.04366777871681649</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5319974169819233</v>
+        <v>0.3685215238006236</v>
       </c>
       <c r="G4">
-        <v>0.3758316283522234</v>
+        <v>0.2757295236623634</v>
       </c>
       <c r="H4">
-        <v>0.5375094016707465</v>
+        <v>0.2346587177278749</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.282060902933857</v>
+        <v>0.1695512988395151</v>
       </c>
       <c r="M4">
-        <v>0.1878451596558719</v>
+        <v>0.2904455900481508</v>
       </c>
       <c r="N4">
-        <v>1.235274187941556</v>
+        <v>0.7813279787353551</v>
       </c>
       <c r="O4">
-        <v>1.767869265150949</v>
+        <v>1.025699668515784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6355361125208958</v>
+        <v>1.533167109058354</v>
       </c>
       <c r="C5">
-        <v>0.3998286419261774</v>
+        <v>0.3498956428453823</v>
       </c>
       <c r="D5">
-        <v>0.01713419994661081</v>
+        <v>0.04211164536808809</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5311990783837643</v>
+        <v>0.3605032110189796</v>
       </c>
       <c r="G5">
-        <v>0.375335407922698</v>
+        <v>0.2698277209332787</v>
       </c>
       <c r="H5">
-        <v>0.5382645747412838</v>
+        <v>0.2333004629446549</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2816713804305451</v>
+        <v>0.1660293577255061</v>
       </c>
       <c r="M5">
-        <v>0.184652361704515</v>
+        <v>0.2788953441564743</v>
       </c>
       <c r="N5">
-        <v>1.237768291165871</v>
+        <v>0.7861715618957064</v>
       </c>
       <c r="O5">
-        <v>1.76832585561435</v>
+        <v>1.010251660799042</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6322364138470959</v>
+        <v>1.522220782420987</v>
       </c>
       <c r="C6">
-        <v>0.3996014972417328</v>
+        <v>0.3491866083596307</v>
       </c>
       <c r="D6">
-        <v>0.01704799325784023</v>
+        <v>0.04185307571606245</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5310721888197278</v>
+        <v>0.3591826035013668</v>
       </c>
       <c r="G6">
-        <v>0.3752576353463013</v>
+        <v>0.2688574833214901</v>
       </c>
       <c r="H6">
-        <v>0.5383940324356402</v>
+        <v>0.233081428792282</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2816089811815843</v>
+        <v>0.1654481711470694</v>
       </c>
       <c r="M6">
-        <v>0.1841231856297725</v>
+        <v>0.276978910960878</v>
       </c>
       <c r="N6">
-        <v>1.238189499239652</v>
+        <v>0.7869896940479606</v>
       </c>
       <c r="O6">
-        <v>1.76841983402403</v>
+        <v>1.007720672913052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6551432661263448</v>
+        <v>1.598201686674599</v>
       </c>
       <c r="C7">
-        <v>0.401179705684342</v>
+        <v>0.3541102990724454</v>
       </c>
       <c r="D7">
-        <v>0.0176456161934837</v>
+        <v>0.04364680373264918</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5319862699336753</v>
+        <v>0.368412653020755</v>
       </c>
       <c r="G7">
-        <v>0.3758246260768914</v>
+        <v>0.2756492693275874</v>
       </c>
       <c r="H7">
-        <v>0.5375193139290388</v>
+        <v>0.2346399608399423</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2820554968416786</v>
+        <v>0.1695035552576272</v>
       </c>
       <c r="M7">
-        <v>0.1878020345343359</v>
+        <v>0.290289717853554</v>
       </c>
       <c r="N7">
-        <v>1.235307350806821</v>
+        <v>0.7813923678718453</v>
       </c>
       <c r="O7">
-        <v>1.767874205272079</v>
+        <v>1.025489021704075</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7562993955312152</v>
+        <v>1.933640562304191</v>
       </c>
       <c r="C8">
-        <v>0.4081817346651491</v>
+        <v>0.3758935530815108</v>
       </c>
       <c r="D8">
-        <v>0.02026414766629614</v>
+        <v>0.05153838947704514</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5368446758400012</v>
+        <v>0.4107959482997643</v>
       </c>
       <c r="G8">
-        <v>0.3789994455040642</v>
+        <v>0.3071125304778946</v>
       </c>
       <c r="H8">
-        <v>0.5342495012395148</v>
+        <v>0.2424962568034772</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2843569790059348</v>
+        <v>0.1879505494342482</v>
       </c>
       <c r="M8">
-        <v>0.2041777357302408</v>
+        <v>0.3492705504678284</v>
       </c>
       <c r="N8">
-        <v>1.223614966348975</v>
+        <v>0.758751800963573</v>
       </c>
       <c r="O8">
-        <v>1.768107195345408</v>
+        <v>1.109089111234056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9548492758156044</v>
+        <v>2.593209038163991</v>
       </c>
       <c r="C9">
-        <v>0.4220370671693843</v>
+        <v>0.4188288701918879</v>
       </c>
       <c r="D9">
-        <v>0.02533040209442561</v>
+        <v>0.06694643196453853</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5493379430896255</v>
+        <v>0.5006624392761694</v>
       </c>
       <c r="G9">
-        <v>0.3876504258175828</v>
+        <v>0.3749438702474208</v>
       </c>
       <c r="H9">
-        <v>0.5299561795321779</v>
+        <v>0.2617638521321055</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2900570165234342</v>
+        <v>0.2263532082489519</v>
       </c>
       <c r="M9">
-        <v>0.236787287275547</v>
+        <v>0.466105097153239</v>
       </c>
       <c r="N9">
-        <v>1.204365228007397</v>
+        <v>0.7222112971892827</v>
       </c>
       <c r="O9">
-        <v>1.778065811520491</v>
+        <v>1.294036953167137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.100782146520032</v>
+        <v>3.080181809013084</v>
       </c>
       <c r="C10">
-        <v>0.4322836473204887</v>
+        <v>0.4505302929231902</v>
       </c>
       <c r="D10">
-        <v>0.02900965444706571</v>
+        <v>0.07824512000096462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5603289341288971</v>
+        <v>0.5716212189092147</v>
       </c>
       <c r="G10">
-        <v>0.395493037149933</v>
+        <v>0.429289424909939</v>
       </c>
       <c r="H10">
-        <v>0.5280921861893972</v>
+        <v>0.2786188740743825</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2949665998233399</v>
+        <v>0.2561750740935054</v>
       </c>
       <c r="M10">
-        <v>0.2610403824234879</v>
+        <v>0.5529709709745632</v>
       </c>
       <c r="N10">
-        <v>1.192458209546999</v>
+        <v>0.7006103541683757</v>
       </c>
       <c r="O10">
-        <v>1.791190072170309</v>
+        <v>1.445084687851818</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.167172992667645</v>
+        <v>3.302550428351481</v>
       </c>
       <c r="C11">
-        <v>0.4369578581387827</v>
+        <v>0.4649924133522347</v>
       </c>
       <c r="D11">
-        <v>0.03067391433651068</v>
+        <v>0.08338511994644193</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5657234977607501</v>
+        <v>0.6051659274458885</v>
       </c>
       <c r="G11">
-        <v>0.3993855223134233</v>
+        <v>0.4551737506065336</v>
       </c>
       <c r="H11">
-        <v>0.5275241394683121</v>
+        <v>0.2869541428450475</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2973565009629908</v>
+        <v>0.2701495252373007</v>
       </c>
       <c r="M11">
-        <v>0.2721362146557027</v>
+        <v>0.5927860219780214</v>
       </c>
       <c r="N11">
-        <v>1.187525475731732</v>
+        <v>0.6920296689890577</v>
       </c>
       <c r="O11">
-        <v>1.798425206377743</v>
+        <v>1.517649630724094</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.192313031413221</v>
+        <v>3.386903836334</v>
       </c>
       <c r="C12">
-        <v>0.4387295570904257</v>
+        <v>0.4704752504548537</v>
       </c>
       <c r="D12">
-        <v>0.03130274193423332</v>
+        <v>0.08533191379331839</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5678230723281672</v>
+        <v>0.6180673455168773</v>
       </c>
       <c r="G12">
-        <v>0.4009063347502888</v>
+        <v>0.4651587002182538</v>
       </c>
       <c r="H12">
-        <v>0.5273492547718917</v>
+        <v>0.2902137480248399</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.298283954745898</v>
+        <v>0.2755051565636535</v>
       </c>
       <c r="M12">
-        <v>0.2763467858568731</v>
+        <v>0.6079124525201962</v>
       </c>
       <c r="N12">
-        <v>1.185727048169255</v>
+        <v>0.6889690903291381</v>
       </c>
       <c r="O12">
-        <v>1.80134704282537</v>
+        <v>1.545731345379835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.186898730587814</v>
+        <v>3.368729835747104</v>
       </c>
       <c r="C13">
-        <v>0.4383479184835437</v>
+        <v>0.4692941333106262</v>
       </c>
       <c r="D13">
-        <v>0.03116737506656619</v>
+        <v>0.08491261364093816</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5673683663272584</v>
+        <v>0.6152796746787885</v>
       </c>
       <c r="G13">
-        <v>0.4005767169813765</v>
+        <v>0.4629998528670001</v>
       </c>
       <c r="H13">
-        <v>0.527385130840571</v>
+        <v>0.2895070235702093</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2980832133913793</v>
+        <v>0.2743488030384356</v>
       </c>
       <c r="M13">
-        <v>0.2754395754792753</v>
+        <v>0.6046524060212306</v>
       </c>
       <c r="N13">
-        <v>1.186111282332206</v>
+        <v>0.6896196870864912</v>
       </c>
       <c r="O13">
-        <v>1.800709673836963</v>
+        <v>1.539655816108649</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.169241302016815</v>
+        <v>3.309487126684587</v>
       </c>
       <c r="C14">
-        <v>0.4371035843656728</v>
+        <v>0.465443359676442</v>
       </c>
       <c r="D14">
-        <v>0.03072567643567226</v>
+        <v>0.08354527391949063</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5658950931980229</v>
+        <v>0.6062232511021293</v>
       </c>
       <c r="G14">
-        <v>0.3995097016977951</v>
+        <v>0.4559914532340201</v>
       </c>
       <c r="H14">
-        <v>0.5275089456342528</v>
+        <v>0.2872202010215972</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2974323535291603</v>
+        <v>0.2705888270897248</v>
       </c>
       <c r="M14">
-        <v>0.2724824454603052</v>
+        <v>0.5940294561877408</v>
       </c>
       <c r="N14">
-        <v>1.187376125755044</v>
+        <v>0.6917740335523916</v>
       </c>
       <c r="O14">
-        <v>1.798661938171762</v>
+        <v>1.519947554686382</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.158425477434378</v>
+        <v>3.273219239343121</v>
       </c>
       <c r="C15">
-        <v>0.43634160649097</v>
+        <v>0.4630854904982868</v>
       </c>
       <c r="D15">
-        <v>0.03045494108906865</v>
+        <v>0.08270780048970039</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5650000643752975</v>
+        <v>0.6007023330013155</v>
       </c>
       <c r="G15">
-        <v>0.3988622233996466</v>
+        <v>0.4517229453767584</v>
       </c>
       <c r="H15">
-        <v>0.5275900231223005</v>
+        <v>0.2858331196680552</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2970366050848838</v>
+        <v>0.2682941997965287</v>
       </c>
       <c r="M15">
-        <v>0.2706722596095901</v>
+        <v>0.5875292116823942</v>
       </c>
       <c r="N15">
-        <v>1.18815992636307</v>
+        <v>0.6931185078292899</v>
       </c>
       <c r="O15">
-        <v>1.797431353832224</v>
+        <v>1.507955703548987</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.096443326948588</v>
+        <v>3.065668635181964</v>
       </c>
       <c r="C16">
-        <v>0.4319784216827145</v>
+        <v>0.4495860214042011</v>
       </c>
       <c r="D16">
-        <v>0.02890069820275443</v>
+        <v>0.07790924283053613</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5599843302876906</v>
+        <v>0.569455867063752</v>
       </c>
       <c r="G16">
-        <v>0.395245199405025</v>
+        <v>0.4276225543351586</v>
       </c>
       <c r="H16">
-        <v>0.5281349393239196</v>
+        <v>0.2780881870017851</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2948135587527929</v>
+        <v>0.2552704556307077</v>
       </c>
       <c r="M16">
-        <v>0.2603164908107587</v>
+        <v>0.5503755150607432</v>
       </c>
       <c r="N16">
-        <v>1.192790304051002</v>
+        <v>0.7011969970578704</v>
       </c>
       <c r="O16">
-        <v>1.790742705220566</v>
+        <v>1.440424035144474</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.058419570408773</v>
+        <v>2.938576780659048</v>
       </c>
       <c r="C17">
-        <v>0.4293049399186941</v>
+        <v>0.4413153351373609</v>
       </c>
       <c r="D17">
-        <v>0.02794477691837471</v>
+        <v>0.07496577758354306</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.557008442878967</v>
+        <v>0.5506228657233549</v>
       </c>
       <c r="G17">
-        <v>0.3931095444851138</v>
+        <v>0.4131464839278891</v>
       </c>
       <c r="H17">
-        <v>0.5285408966574039</v>
+        <v>0.273512939325542</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.293489837687261</v>
+        <v>0.2473889184800413</v>
       </c>
       <c r="M17">
-        <v>0.2539795244253753</v>
+        <v>0.5276639330872115</v>
       </c>
       <c r="N17">
-        <v>1.195754751153792</v>
+        <v>0.7064785973811922</v>
       </c>
       <c r="O17">
-        <v>1.786963511304748</v>
+        <v>1.4000161337527</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.036549894537529</v>
+        <v>2.865554511206597</v>
       </c>
       <c r="C18">
-        <v>0.42776845799456</v>
+        <v>0.4365620822406129</v>
       </c>
       <c r="D18">
-        <v>0.02739406870709615</v>
+        <v>0.07327276712582176</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5553339422025942</v>
+        <v>0.5399086397542803</v>
       </c>
       <c r="G18">
-        <v>0.3919117419944484</v>
+        <v>0.4049286127989689</v>
       </c>
       <c r="H18">
-        <v>0.5288007390153098</v>
+        <v>0.2709437808706952</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2927432028604926</v>
+        <v>0.2428937779454117</v>
       </c>
       <c r="M18">
-        <v>0.2503406108137014</v>
+        <v>0.5146286044470543</v>
       </c>
       <c r="N18">
-        <v>1.197505367634385</v>
+        <v>0.7096330753916504</v>
       </c>
       <c r="O18">
-        <v>1.784908862213882</v>
+        <v>1.377134089097325</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.029145343616278</v>
+        <v>2.840842988711699</v>
       </c>
       <c r="C19">
-        <v>0.4272484494064912</v>
+        <v>0.4349533569453143</v>
       </c>
       <c r="D19">
-        <v>0.02720745691886606</v>
+        <v>0.07269953097764414</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5547733653785798</v>
+        <v>0.5363007610078299</v>
       </c>
       <c r="G19">
-        <v>0.3915114339319103</v>
+        <v>0.402164326891878</v>
       </c>
       <c r="H19">
-        <v>0.528893242990776</v>
+        <v>0.2700844142324286</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2924929374894276</v>
+        <v>0.2413781962214614</v>
       </c>
       <c r="M19">
-        <v>0.249109564890496</v>
+        <v>0.5102196513856825</v>
       </c>
       <c r="N19">
-        <v>1.198105921248093</v>
+        <v>0.710720877220048</v>
       </c>
       <c r="O19">
-        <v>1.784233634035189</v>
+        <v>1.369446927403573</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.06246721463333</v>
+        <v>2.952097710626504</v>
       </c>
       <c r="C20">
-        <v>0.4295894102829863</v>
+        <v>0.4421953646271533</v>
       </c>
       <c r="D20">
-        <v>0.02804662846609318</v>
+        <v>0.07527911266399911</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5573213860864641</v>
+        <v>0.5526153378758636</v>
       </c>
       <c r="G20">
-        <v>0.3933337240081727</v>
+        <v>0.4146761566852177</v>
       </c>
       <c r="H20">
-        <v>0.5284949552362406</v>
+        <v>0.2739934731900178</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2936292254882318</v>
+        <v>0.2482239413286038</v>
       </c>
       <c r="M20">
-        <v>0.2546534920640156</v>
+        <v>0.5300787011932115</v>
       </c>
       <c r="N20">
-        <v>1.195434467578615</v>
+        <v>0.705904222312661</v>
       </c>
       <c r="O20">
-        <v>1.787353491203078</v>
+        <v>1.404280071116148</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.174427748586368</v>
+        <v>3.326883932716441</v>
       </c>
       <c r="C21">
-        <v>0.4374690314731993</v>
+        <v>0.4665742491106926</v>
       </c>
       <c r="D21">
-        <v>0.03085545205586726</v>
+        <v>0.0839468812153612</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.566326288409293</v>
+        <v>0.608877808350428</v>
       </c>
       <c r="G21">
-        <v>0.3998218386701922</v>
+        <v>0.4580448878136707</v>
       </c>
       <c r="H21">
-        <v>0.5274714868157844</v>
+        <v>0.2878890352921246</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2976229180020056</v>
+        <v>0.2716914492051359</v>
       </c>
       <c r="M21">
-        <v>0.2733507887263329</v>
+        <v>0.5971482828169741</v>
       </c>
       <c r="N21">
-        <v>1.187002725234414</v>
+        <v>0.6911360478921722</v>
       </c>
       <c r="O21">
-        <v>1.799258465742099</v>
+        <v>1.525719579173455</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.247595462338438</v>
+        <v>3.572700129638577</v>
       </c>
       <c r="C22">
-        <v>0.4426285046534986</v>
+        <v>0.482544501345842</v>
       </c>
       <c r="D22">
-        <v>0.03268305473956445</v>
+        <v>0.08961421294395677</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5725424182778625</v>
+        <v>0.6468157357290778</v>
       </c>
       <c r="G22">
-        <v>0.4043351030223619</v>
+        <v>0.4874643827664613</v>
       </c>
       <c r="H22">
-        <v>0.5270370250040628</v>
+        <v>0.2975759092065715</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.300363857305328</v>
+        <v>0.2874033538346481</v>
       </c>
       <c r="M22">
-        <v>0.2856218552187642</v>
+        <v>0.6412729309311658</v>
       </c>
       <c r="N22">
-        <v>1.181897109328908</v>
+        <v>0.6825892046101245</v>
       </c>
       <c r="O22">
-        <v>1.808100244633607</v>
+        <v>1.608626783090301</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.208545422669999</v>
+        <v>3.441414498904635</v>
       </c>
       <c r="C23">
-        <v>0.4398739734966455</v>
+        <v>0.4740173045252902</v>
       </c>
       <c r="D23">
-        <v>0.03170838308503932</v>
+        <v>0.08658910153422994</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5691944713713468</v>
+        <v>0.6264549107666681</v>
       </c>
       <c r="G23">
-        <v>0.4019012850455539</v>
+        <v>0.4716586792764446</v>
       </c>
       <c r="H23">
-        <v>0.5272474633717508</v>
+        <v>0.2923479575106853</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2988890138125129</v>
+        <v>0.2789815774807067</v>
       </c>
       <c r="M23">
-        <v>0.279067939843479</v>
+        <v>0.6176939736711873</v>
       </c>
       <c r="N23">
-        <v>1.184585039934362</v>
+        <v>0.6870463765306667</v>
       </c>
       <c r="O23">
-        <v>1.803284068290594</v>
+        <v>1.564036774848631</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.060637303571355</v>
+        <v>2.945984761436762</v>
       </c>
       <c r="C24">
-        <v>0.42946079954136</v>
+        <v>0.4417974981118249</v>
       </c>
       <c r="D24">
-        <v>0.02800058491856561</v>
+        <v>0.07513745630924973</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5571797911533238</v>
+        <v>0.5517141901404798</v>
       </c>
       <c r="G24">
-        <v>0.3932322789628699</v>
+        <v>0.4139842669773799</v>
       </c>
       <c r="H24">
-        <v>0.5285156429537636</v>
+        <v>0.2737760337050759</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2935661634366085</v>
+        <v>0.2478463155606789</v>
       </c>
       <c r="M24">
-        <v>0.2543487779054487</v>
+        <v>0.5289869169065682</v>
       </c>
       <c r="N24">
-        <v>1.195579123503776</v>
+        <v>0.706163530409043</v>
       </c>
       <c r="O24">
-        <v>1.787176813555675</v>
+        <v>1.402351261653791</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9011221946013279</v>
+        <v>2.414458710391898</v>
       </c>
       <c r="C25">
-        <v>0.4182764252749109</v>
+        <v>0.4071880695421868</v>
       </c>
       <c r="D25">
-        <v>0.02396730743405584</v>
+        <v>0.06278341581241165</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5456402320506655</v>
+        <v>0.4755466765460881</v>
       </c>
       <c r="G25">
-        <v>0.3850496132110948</v>
+        <v>0.355860253988098</v>
       </c>
       <c r="H25">
-        <v>0.5308909470642931</v>
+        <v>0.2561036569653794</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2883881276448861</v>
+        <v>0.2157008710923947</v>
       </c>
       <c r="M25">
-        <v>0.2279131790217477</v>
+        <v>0.4343415822080061</v>
       </c>
       <c r="N25">
-        <v>1.209179674717191</v>
+        <v>0.7312099035380442</v>
       </c>
       <c r="O25">
-        <v>1.774352937817866</v>
+        <v>1.241519266110828</v>
       </c>
     </row>
   </sheetData>
